--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_193.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_193.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,616 +488,686 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58), (85.58, 94.24)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14), (8.24, 13.46)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:20.672131')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0826923076923077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:sus4', 'G', 'C'], ['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb:sus4', 'Eb', 'Ab'], ['Ab', 'Db', 'Ab']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(87.713, 90.861), (4.25, 9.179)]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(67.17009, 70.699523), (3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:39.580000', '0:00:46.780000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04), (0.86, 5.14)]</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.68, 65.78)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(93.1, 111.54)]</t>
+          <t>[('0:01:33', '0:01:43.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:41.440000', '0:01:52.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1425</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'G:7', 'G:7']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.12, 29.05)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.84, 15.04)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09197651663405088</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'A']]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(101.849092, 109.476848)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.294, 8.399)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:04.580000', '0:01:13.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:34.650000', '0:00:37.760000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(54.62, 60.5)]</t>
+          <t>[['E', 'A', 'D'], ['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(35.997, 42.131)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:39.148775', '0:00:43.514126'), ('0:01:05.810340', '0:01:11.679931')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1263586956521739</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(93.1817, 97.709591)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.776, 9.009)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(51.62, 60.94)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.1, 29.56)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.28, 17.3)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08161764705882353</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'F#:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.496439, 26.964739)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.337619, 50.004104)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.48, 96.94)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.14, 110.26)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(76.585782, 79.023877)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(129.38, 135.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
